--- a/biology/Botanique/Cariniana_legalis/Cariniana_legalis.xlsx
+++ b/biology/Botanique/Cariniana_legalis/Cariniana_legalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cariniana legalis est une espèce de plantes à fleurs de la famille des Lecythidaceae. C'est un grand arbre originaire du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cariniana brasiliensis Casar.
 Couratari legalis Mart. 1837</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre pouvant atteindre 50 m de haut et 6 m de diamètre. Il est considéré comme le plus grand arbre du Brésil. Ses feuilles simples, pétiolées, ovales, membraneuses, mesurent 7 cm sur 4. Ses fleurs qui apparaissent de décembre à février, sont de couleur crème.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Disséminé dans les forêts de plaine non-inondée du Brésil (Alagoas, Bahia, Espírito Santo, Minas Gerais, Paraíba, Pernambuco, Rio de Janeiro, São Paulo).
 </t>
@@ -604,7 +622,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est menacé par la perte de son habitat. Les grands arbres sont maintenus en couverture dans les plantations de café.
 </t>
